--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="469">
   <si>
     <t>Path</t>
   </si>
@@ -1338,6 +1338,16 @@
   <si>
     <t xml:space="preserve">Quantity
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
   </si>
   <si>
     <t>Observation.component.value[x].id</t>
@@ -1638,7 +1648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1648,7 +1658,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -8362,16 +8372,14 @@
         <v>45</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>401</v>
@@ -8409,9 +8417,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="C58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8429,19 +8439,23 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8489,7 +8503,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8501,41 +8515,41 @@
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8547,17 +8561,15 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8594,31 +8606,31 @@
         <v>45</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8639,45 +8651,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>424</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8713,31 +8723,31 @@
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>45</v>
+        <v>424</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8746,10 +8756,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8758,9 +8768,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8768,39 +8778,39 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>75</v>
+        <v>426</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P61" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8820,13 +8830,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8844,7 +8854,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8865,10 +8875,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8879,7 +8889,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8896,28 +8906,30 @@
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="Q62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8937,13 +8949,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>439</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8961,7 +8973,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8982,10 +8994,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8994,9 +9006,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9004,13 +9016,13 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -9019,24 +9031,24 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>452</v>
+        <v>45</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>45</v>
@@ -9078,7 +9090,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9087,7 +9099,7 @@
         <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>67</v>
@@ -9099,10 +9111,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9113,7 +9125,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9136,26 +9148,24 @@
         <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>45</v>
@@ -9197,7 +9207,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9206,7 +9216,7 @@
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>67</v>
@@ -9218,10 +9228,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9230,9 +9240,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9240,41 +9250,41 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>248</v>
+        <v>463</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>45</v>
@@ -9292,13 +9302,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9316,7 +9326,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9325,7 +9335,7 @@
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9337,10 +9347,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>98</v>
+        <v>449</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>253</v>
+        <v>466</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9351,18 +9361,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9377,16 +9387,16 @@
         <v>153</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>256</v>
+        <v>407</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>257</v>
+        <v>408</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>258</v>
+        <v>409</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9414,10 +9424,10 @@
         <v>249</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9435,16 +9445,16 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9453,28 +9463,28 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9493,19 +9503,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>412</v>
+        <v>256</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9530,13 +9540,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9554,7 +9564,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9572,37 +9582,35 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9611,22 +9619,22 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9675,7 +9683,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9696,10 +9704,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9710,15 +9718,17 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>55</v>
@@ -9730,19 +9740,23 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9790,19 +9804,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9811,10 +9825,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9825,18 +9839,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9848,17 +9862,15 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9907,19 +9919,19 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>45</v>
@@ -9942,11 +9954,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9959,26 +9971,24 @@
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10026,7 +10036,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10050,7 +10060,7 @@
         <v>45</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10061,42 +10071,42 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>399</v>
+        <v>104</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10106,7 +10116,7 @@
         <v>45</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>45</v>
@@ -10121,13 +10131,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10145,34 +10155,34 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>45</v>
@@ -10180,7 +10190,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10188,7 +10198,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>55</v>
@@ -10203,19 +10213,19 @@
         <v>56</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>417</v>
+        <v>153</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10225,7 +10235,7 @@
         <v>45</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>45</v>
@@ -10240,13 +10250,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10264,10 +10274,10 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>55</v>
@@ -10282,24 +10292,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10319,19 +10329,23 @@
         <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10379,7 +10393,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10391,41 +10405,41 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10437,17 +10451,15 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10484,31 +10496,31 @@
         <v>45</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>45</v>
@@ -10529,45 +10541,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>422</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>424</v>
+        <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10603,31 +10613,31 @@
         <v>45</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>45</v>
+        <v>424</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>45</v>
@@ -10636,10 +10646,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10648,9 +10658,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10658,39 +10668,39 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>75</v>
+        <v>426</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="N77" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P77" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>45</v>
       </c>
@@ -10710,13 +10720,13 @@
         <v>45</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>45</v>
@@ -10734,7 +10744,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10755,10 +10765,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10769,7 +10779,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10786,28 +10796,30 @@
         <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="Q78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10827,13 +10839,13 @@
         <v>45</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>45</v>
+        <v>439</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
@@ -10851,7 +10863,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -10872,10 +10884,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -10884,9 +10896,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10894,13 +10906,13 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>45</v>
@@ -10909,24 +10921,24 @@
         <v>56</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>452</v>
+        <v>45</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>45</v>
@@ -10968,7 +10980,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -10977,7 +10989,7 @@
         <v>55</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>67</v>
@@ -10989,10 +11001,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11003,7 +11015,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11026,26 +11038,24 @@
         <v>56</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>45</v>
@@ -11087,7 +11097,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11096,7 +11106,7 @@
         <v>55</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>67</v>
@@ -11108,10 +11118,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11120,9 +11130,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11130,41 +11140,41 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>248</v>
+        <v>463</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>45</v>
@@ -11182,13 +11192,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11206,7 +11216,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11215,7 +11225,7 @@
         <v>55</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>67</v>
@@ -11227,10 +11237,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>98</v>
+        <v>449</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>253</v>
+        <v>466</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11241,18 +11251,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -11267,16 +11277,16 @@
         <v>153</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>256</v>
+        <v>407</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>257</v>
+        <v>408</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>258</v>
+        <v>409</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11304,10 +11314,10 @@
         <v>249</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11325,16 +11335,16 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>67</v>
@@ -11343,28 +11353,28 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11383,19 +11393,19 @@
         <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>412</v>
+        <v>256</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11420,13 +11430,13 @@
         <v>45</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -11444,7 +11454,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11462,23 +11472,142 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AN83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO83" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO83">
+  <autoFilter ref="A1:AO84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11488,7 +11617,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
